--- a/data/ayesha_chlorantran_2022_agriculture.xlsx
+++ b/data/ayesha_chlorantran_2022_agriculture.xlsx
@@ -51,7 +51,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +62,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -99,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -116,16 +110,10 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -436,13 +424,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="9" width="11.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="6" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="11.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -538,7 +526,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="6"/>
+      <c r="F6" s="4"/>
       <c r="G6" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
@@ -551,7 +539,7 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="6"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
@@ -564,7 +552,7 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="4"/>
       <c r="G8" s="3"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
@@ -577,7 +565,7 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="4"/>
       <c r="G9" s="3"/>
     </row>
   </sheetData>
